--- a/CrowdfundingBook.xlsx
+++ b/CrowdfundingBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/02-Homework/01-Excel/Instructions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fede\Desktop\Data Analyst\Projects\Crowdfunding-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11C9D2FE-BDF6-5C46-B9DE-A4DF0C4A6734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8B21F3-89EC-4C94-8069-B999D22DCFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1080" windowWidth="26440" windowHeight="14480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowdfunding" sheetId="1" r:id="rId1"/>
@@ -6123,7 +6123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -6658,7 +6658,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -6967,24 +6978,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2027</v>
       </c>
@@ -7028,7 +7039,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7072,7 +7083,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7116,7 +7127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7160,7 +7171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7204,7 +7215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7248,7 +7259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7292,7 +7303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7336,7 +7347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -7380,7 +7391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -7424,7 +7435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -7468,7 +7479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -7512,7 +7523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -7556,7 +7567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -7600,7 +7611,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -7644,7 +7655,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -7688,7 +7699,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -7732,7 +7743,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -7776,7 +7787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -7820,7 +7831,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -7864,7 +7875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -7908,7 +7919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -7952,7 +7963,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7996,7 +8007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8040,7 +8051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8084,7 +8095,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8128,7 +8139,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8172,7 +8183,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8216,7 +8227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8260,7 +8271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8304,7 +8315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8348,7 +8359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8392,7 +8403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8436,7 +8447,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8480,7 +8491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8524,7 +8535,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8568,7 +8579,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8612,7 +8623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8656,7 +8667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8700,7 +8711,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8744,7 +8755,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8788,7 +8799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8832,7 +8843,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -8876,7 +8887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8920,7 +8931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -8964,7 +8975,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -9008,7 +9019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -9052,7 +9063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -9096,7 +9107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -9140,7 +9151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -9184,7 +9195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -9228,7 +9239,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -9272,7 +9283,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9316,7 +9327,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9360,7 +9371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9404,7 +9415,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9448,7 +9459,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9492,7 +9503,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -9536,7 +9547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9580,7 +9591,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -9624,7 +9635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -9668,7 +9679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -9712,7 +9723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -9756,7 +9767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -9800,7 +9811,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -9844,7 +9855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -9888,7 +9899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -9932,7 +9943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -9976,7 +9987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -10020,7 +10031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -10064,7 +10075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -10108,7 +10119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -10152,7 +10163,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -10196,7 +10207,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -10240,7 +10251,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -10284,7 +10295,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -10328,7 +10339,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -10372,7 +10383,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -10416,7 +10427,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -10460,7 +10471,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -10504,7 +10515,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -10548,7 +10559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -10592,7 +10603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -10636,7 +10647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -10680,7 +10691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -10724,7 +10735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -10768,7 +10779,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -10812,7 +10823,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -10856,7 +10867,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -10900,7 +10911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -10944,7 +10955,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -10988,7 +10999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -11032,7 +11043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -11076,7 +11087,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -11120,7 +11131,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -11164,7 +11175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -11208,7 +11219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -11252,7 +11263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -11296,7 +11307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -11340,7 +11351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -11384,7 +11395,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -11428,7 +11439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -11472,7 +11483,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -11516,7 +11527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -11560,7 +11571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -11604,7 +11615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -11648,7 +11659,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -11692,7 +11703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -11736,7 +11747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -11780,7 +11791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -11824,7 +11835,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -11868,7 +11879,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -11912,7 +11923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -11956,7 +11967,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -12000,7 +12011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -12044,7 +12055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -12088,7 +12099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -12132,7 +12143,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -12176,7 +12187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -12220,7 +12231,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -12264,7 +12275,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -12308,7 +12319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -12352,7 +12363,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -12396,7 +12407,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -12440,7 +12451,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -12484,7 +12495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -12528,7 +12539,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -12572,7 +12583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -12616,7 +12627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -12660,7 +12671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -12704,7 +12715,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -12748,7 +12759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -12792,7 +12803,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -12836,7 +12847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -12880,7 +12891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -12924,7 +12935,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -12968,7 +12979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -13012,7 +13023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -13056,7 +13067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -13100,7 +13111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -13144,7 +13155,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -13188,7 +13199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -13232,7 +13243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -13276,7 +13287,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -13320,7 +13331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -13364,7 +13375,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -13408,7 +13419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -13452,7 +13463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -13496,7 +13507,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -13540,7 +13551,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -13584,7 +13595,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -13628,7 +13639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -13672,7 +13683,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -13716,7 +13727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -13760,7 +13771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -13804,7 +13815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -13848,7 +13859,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -13892,7 +13903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -13936,7 +13947,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -13980,7 +13991,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -14024,7 +14035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -14068,7 +14079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -14112,7 +14123,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -14156,7 +14167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -14200,7 +14211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -14244,7 +14255,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -14288,7 +14299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -14332,7 +14343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -14376,7 +14387,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -14420,7 +14431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -14464,7 +14475,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -14508,7 +14519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -14552,7 +14563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -14596,7 +14607,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -14640,7 +14651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -14684,7 +14695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -14728,7 +14739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -14772,7 +14783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -14816,7 +14827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -14860,7 +14871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -14904,7 +14915,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -14948,7 +14959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -14992,7 +15003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -15036,7 +15047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -15080,7 +15091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -15124,7 +15135,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -15168,7 +15179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -15212,7 +15223,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -15256,7 +15267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -15300,7 +15311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -15344,7 +15355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -15388,7 +15399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -15432,7 +15443,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -15476,7 +15487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -15520,7 +15531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -15564,7 +15575,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -15608,7 +15619,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -15652,7 +15663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -15696,7 +15707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -15740,7 +15751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -15784,7 +15795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -15828,7 +15839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -15872,7 +15883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -15916,7 +15927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -15960,7 +15971,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -16004,7 +16015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -16048,7 +16059,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -16092,7 +16103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -16136,7 +16147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -16180,7 +16191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -16224,7 +16235,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -16268,7 +16279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -16312,7 +16323,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -16356,7 +16367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -16400,7 +16411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -16444,7 +16455,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -16488,7 +16499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -16532,7 +16543,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -16576,7 +16587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="219" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -16620,7 +16631,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -16664,7 +16675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -16708,7 +16719,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -16752,7 +16763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -16796,7 +16807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -16840,7 +16851,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="225" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -16884,7 +16895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -16928,7 +16939,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -16972,7 +16983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -17016,7 +17027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -17060,7 +17071,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -17104,7 +17115,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -17148,7 +17159,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -17192,7 +17203,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -17236,7 +17247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -17280,7 +17291,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -17324,7 +17335,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -17368,7 +17379,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -17412,7 +17423,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -17456,7 +17467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -17500,7 +17511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -17544,7 +17555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -17588,7 +17599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -17632,7 +17643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -17676,7 +17687,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -17720,7 +17731,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -17764,7 +17775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="246" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -17808,7 +17819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -17852,7 +17863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -17896,7 +17907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -17940,7 +17951,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -17984,7 +17995,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -18028,7 +18039,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="252" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -18072,7 +18083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -18116,7 +18127,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -18160,7 +18171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="255" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -18204,7 +18215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="256" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -18248,7 +18259,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="257" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -18292,7 +18303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -18336,7 +18347,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -18380,7 +18391,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="260" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -18424,7 +18435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="261" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -18468,7 +18479,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="262" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -18512,7 +18523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="263" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -18556,7 +18567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="264" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -18600,7 +18611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="265" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -18644,7 +18655,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="266" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -18688,7 +18699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="267" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -18732,7 +18743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -18776,7 +18787,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="269" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -18820,7 +18831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="270" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -18864,7 +18875,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="271" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -18908,7 +18919,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -18952,7 +18963,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -18996,7 +19007,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="274" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -19040,7 +19051,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -19084,7 +19095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -19128,7 +19139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -19172,7 +19183,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -19216,7 +19227,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -19260,7 +19271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="280" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -19304,7 +19315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -19348,7 +19359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="282" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -19392,7 +19403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="283" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -19436,7 +19447,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="284" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -19480,7 +19491,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -19524,7 +19535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -19568,7 +19579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="287" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -19612,7 +19623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -19656,7 +19667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="289" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -19700,7 +19711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="290" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -19744,7 +19755,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="291" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -19788,7 +19799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="292" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -19832,7 +19843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="293" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -19876,7 +19887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="294" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -19920,7 +19931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -19964,7 +19975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="296" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -20008,7 +20019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="297" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -20052,7 +20063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="298" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -20096,7 +20107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -20140,7 +20151,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="300" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -20184,7 +20195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -20228,7 +20239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -20272,7 +20283,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="303" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -20316,7 +20327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="304" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -20360,7 +20371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="305" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -20404,7 +20415,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="306" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -20448,7 +20459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="307" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -20492,7 +20503,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="308" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -20536,7 +20547,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="309" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -20580,7 +20591,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="310" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -20624,7 +20635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="311" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -20668,7 +20679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="312" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -20712,7 +20723,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="313" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -20756,7 +20767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="314" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -20800,7 +20811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="315" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -20844,7 +20855,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -20888,7 +20899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="317" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -20932,7 +20943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="318" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -20976,7 +20987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -21020,7 +21031,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="320" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -21064,7 +21075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="321" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -21108,7 +21119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="322" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -21152,7 +21163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="323" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -21196,7 +21207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="324" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -21240,7 +21251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="325" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -21284,7 +21295,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="326" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -21328,7 +21339,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="327" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -21372,7 +21383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="328" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -21416,7 +21427,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="329" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -21460,7 +21471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="330" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -21504,7 +21515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="331" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -21548,7 +21559,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="332" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -21592,7 +21603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="333" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -21636,7 +21647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -21680,7 +21691,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="335" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -21724,7 +21735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="336" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -21768,7 +21779,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -21812,7 +21823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -21856,7 +21867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -21900,7 +21911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="340" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -21944,7 +21955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="341" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -21988,7 +21999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="342" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -22032,7 +22043,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="343" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -22076,7 +22087,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="344" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -22120,7 +22131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="345" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -22164,7 +22175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="346" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -22208,7 +22219,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="347" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -22252,7 +22263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="348" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -22296,7 +22307,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="349" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -22340,7 +22351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="350" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -22384,7 +22395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -22428,7 +22439,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -22472,7 +22483,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="353" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -22516,7 +22527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -22560,7 +22571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -22604,7 +22615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="356" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -22648,7 +22659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -22692,7 +22703,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="358" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -22736,7 +22747,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="359" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -22780,7 +22791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="360" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -22824,7 +22835,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="361" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -22868,7 +22879,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -22912,7 +22923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -22956,7 +22967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="364" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -23000,7 +23011,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -23044,7 +23055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="366" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -23088,7 +23099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="367" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -23132,7 +23143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="368" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>366</v>
       </c>
@@ -23176,7 +23187,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="369" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>367</v>
       </c>
@@ -23220,7 +23231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="370" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -23264,7 +23275,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="371" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -23308,7 +23319,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="372" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -23352,7 +23363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="373" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>371</v>
       </c>
@@ -23396,7 +23407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="374" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -23440,7 +23451,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="375" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -23484,7 +23495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="376" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>374</v>
       </c>
@@ -23528,7 +23539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="377" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -23572,7 +23583,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="378" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>376</v>
       </c>
@@ -23616,7 +23627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>377</v>
       </c>
@@ -23660,7 +23671,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="380" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -23704,7 +23715,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="381" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -23748,7 +23759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="382" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>380</v>
       </c>
@@ -23792,7 +23803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="383" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -23836,7 +23847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="384" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -23880,7 +23891,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="385" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>383</v>
       </c>
@@ -23924,7 +23935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>384</v>
       </c>
@@ -23968,7 +23979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="387" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -24012,7 +24023,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="388" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -24056,7 +24067,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="389" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -24100,7 +24111,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="390" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -24144,7 +24155,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="391" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>389</v>
       </c>
@@ -24188,7 +24199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="392" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>390</v>
       </c>
@@ -24232,7 +24243,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="393" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -24276,7 +24287,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="394" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>392</v>
       </c>
@@ -24320,7 +24331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="395" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>393</v>
       </c>
@@ -24364,7 +24375,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="396" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>394</v>
       </c>
@@ -24408,7 +24419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="397" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -24452,7 +24463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="398" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>396</v>
       </c>
@@ -24496,7 +24507,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="399" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>397</v>
       </c>
@@ -24540,7 +24551,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="400" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -24584,7 +24595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="401" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>399</v>
       </c>
@@ -24628,7 +24639,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="402" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>400</v>
       </c>
@@ -24672,7 +24683,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="403" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>401</v>
       </c>
@@ -24716,7 +24727,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="404" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>402</v>
       </c>
@@ -24760,7 +24771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="405" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>403</v>
       </c>
@@ -24804,7 +24815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="406" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>404</v>
       </c>
@@ -24848,7 +24859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="407" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -24892,7 +24903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="408" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -24936,7 +24947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="409" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -24980,7 +24991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="410" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>408</v>
       </c>
@@ -25024,7 +25035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="411" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>409</v>
       </c>
@@ -25068,7 +25079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="412" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>410</v>
       </c>
@@ -25112,7 +25123,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="413" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -25156,7 +25167,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="414" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>412</v>
       </c>
@@ -25200,7 +25211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="415" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>413</v>
       </c>
@@ -25244,7 +25255,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="416" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>414</v>
       </c>
@@ -25288,7 +25299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>415</v>
       </c>
@@ -25332,7 +25343,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="418" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -25376,7 +25387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="419" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>417</v>
       </c>
@@ -25420,7 +25431,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="420" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -25464,7 +25475,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="421" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>419</v>
       </c>
@@ -25508,7 +25519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="422" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>420</v>
       </c>
@@ -25552,7 +25563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="423" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>421</v>
       </c>
@@ -25596,7 +25607,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="424" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -25640,7 +25651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="425" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>423</v>
       </c>
@@ -25684,7 +25695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>424</v>
       </c>
@@ -25728,7 +25739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="427" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>425</v>
       </c>
@@ -25772,7 +25783,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="428" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -25816,7 +25827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="429" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -25860,7 +25871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="430" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -25904,7 +25915,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="431" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -25948,7 +25959,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="432" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>430</v>
       </c>
@@ -25992,7 +26003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="433" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>431</v>
       </c>
@@ -26036,7 +26047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="434" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>432</v>
       </c>
@@ -26080,7 +26091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="435" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>433</v>
       </c>
@@ -26124,7 +26135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="436" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>434</v>
       </c>
@@ -26168,7 +26179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="437" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>435</v>
       </c>
@@ -26212,7 +26223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="438" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -26256,7 +26267,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="439" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -26300,7 +26311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="440" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -26344,7 +26355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="441" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>439</v>
       </c>
@@ -26388,7 +26399,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="442" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>440</v>
       </c>
@@ -26432,7 +26443,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="443" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>441</v>
       </c>
@@ -26476,7 +26487,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="444" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>442</v>
       </c>
@@ -26520,7 +26531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="445" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -26564,7 +26575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="446" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>444</v>
       </c>
@@ -26608,7 +26619,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="447" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>445</v>
       </c>
@@ -26652,7 +26663,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="448" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>446</v>
       </c>
@@ -26696,7 +26707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="449" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>447</v>
       </c>
@@ -26740,7 +26751,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="450" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
@@ -26784,7 +26795,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="451" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>449</v>
       </c>
@@ -26828,7 +26839,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="452" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>450</v>
       </c>
@@ -26872,7 +26883,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="453" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
@@ -26916,7 +26927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="454" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>452</v>
       </c>
@@ -26960,7 +26971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="455" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
@@ -27004,7 +27015,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="456" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
@@ -27048,7 +27059,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="457" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>455</v>
       </c>
@@ -27092,7 +27103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="458" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>456</v>
       </c>
@@ -27136,7 +27147,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="459" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>457</v>
       </c>
@@ -27180,7 +27191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="460" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>458</v>
       </c>
@@ -27224,7 +27235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="461" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>459</v>
       </c>
@@ -27268,7 +27279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="462" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
@@ -27312,7 +27323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="463" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>461</v>
       </c>
@@ -27356,7 +27367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="464" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>462</v>
       </c>
@@ -27400,7 +27411,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="465" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>463</v>
       </c>
@@ -27444,7 +27455,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="466" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>464</v>
       </c>
@@ -27488,7 +27499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="467" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>465</v>
       </c>
@@ -27532,7 +27543,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="468" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>466</v>
       </c>
@@ -27576,7 +27587,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="469" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>467</v>
       </c>
@@ -27620,7 +27631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="470" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>468</v>
       </c>
@@ -27664,7 +27675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="471" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>469</v>
       </c>
@@ -27708,7 +27719,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="472" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>470</v>
       </c>
@@ -27752,7 +27763,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="473" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>471</v>
       </c>
@@ -27796,7 +27807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>472</v>
       </c>
@@ -27840,7 +27851,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>473</v>
       </c>
@@ -27884,7 +27895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="476" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>474</v>
       </c>
@@ -27928,7 +27939,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="477" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>475</v>
       </c>
@@ -27972,7 +27983,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="478" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>476</v>
       </c>
@@ -28016,7 +28027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="479" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>477</v>
       </c>
@@ -28060,7 +28071,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="480" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>478</v>
       </c>
@@ -28104,7 +28115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="481" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>479</v>
       </c>
@@ -28148,7 +28159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="482" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>480</v>
       </c>
@@ -28192,7 +28203,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="483" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>481</v>
       </c>
@@ -28236,7 +28247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="484" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>482</v>
       </c>
@@ -28280,7 +28291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="485" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>483</v>
       </c>
@@ -28324,7 +28335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="486" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>484</v>
       </c>
@@ -28368,7 +28379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="487" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>485</v>
       </c>
@@ -28412,7 +28423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="488" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>486</v>
       </c>
@@ -28456,7 +28467,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="489" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>487</v>
       </c>
@@ -28500,7 +28511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="490" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>488</v>
       </c>
@@ -28544,7 +28555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="491" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>489</v>
       </c>
@@ -28588,7 +28599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="492" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>490</v>
       </c>
@@ -28632,7 +28643,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="493" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>491</v>
       </c>
@@ -28676,7 +28687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>492</v>
       </c>
@@ -28720,7 +28731,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="495" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>493</v>
       </c>
@@ -28764,7 +28775,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="496" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>494</v>
       </c>
@@ -28808,7 +28819,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="497" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>495</v>
       </c>
@@ -28852,7 +28863,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="498" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>496</v>
       </c>
@@ -28896,7 +28907,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="499" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>497</v>
       </c>
@@ -28940,7 +28951,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="500" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>498</v>
       </c>
@@ -28984,7 +28995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="501" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>499</v>
       </c>
@@ -29028,7 +29039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="502" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>500</v>
       </c>
@@ -29072,7 +29083,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="503" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>501</v>
       </c>
@@ -29116,7 +29127,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="504" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>502</v>
       </c>
@@ -29160,7 +29171,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="505" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>503</v>
       </c>
@@ -29204,7 +29215,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="506" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>504</v>
       </c>
@@ -29248,7 +29259,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="507" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>505</v>
       </c>
@@ -29292,7 +29303,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="508" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>506</v>
       </c>
@@ -29336,7 +29347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="509" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>507</v>
       </c>
@@ -29380,7 +29391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="510" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>508</v>
       </c>
@@ -29424,7 +29435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="511" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>509</v>
       </c>
@@ -29468,7 +29479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="512" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>510</v>
       </c>
@@ -29512,7 +29523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="513" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>511</v>
       </c>
@@ -29556,7 +29567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="514" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>512</v>
       </c>
@@ -29600,7 +29611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="515" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>513</v>
       </c>
@@ -29644,7 +29655,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="516" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>514</v>
       </c>
@@ -29688,7 +29699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>515</v>
       </c>
@@ -29732,7 +29743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="518" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>516</v>
       </c>
@@ -29776,7 +29787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="519" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>517</v>
       </c>
@@ -29820,7 +29831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="520" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>518</v>
       </c>
@@ -29864,7 +29875,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="521" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>519</v>
       </c>
@@ -29908,7 +29919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="522" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>520</v>
       </c>
@@ -29952,7 +29963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="523" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>521</v>
       </c>
@@ -29996,7 +30007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="524" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>522</v>
       </c>
@@ -30040,7 +30051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="525" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>523</v>
       </c>
@@ -30084,7 +30095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="526" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>524</v>
       </c>
@@ -30128,7 +30139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="527" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>525</v>
       </c>
@@ -30172,7 +30183,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="528" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>526</v>
       </c>
@@ -30216,7 +30227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="529" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>527</v>
       </c>
@@ -30260,7 +30271,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="530" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>528</v>
       </c>
@@ -30304,7 +30315,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="531" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>529</v>
       </c>
@@ -30348,7 +30359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="532" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>530</v>
       </c>
@@ -30392,7 +30403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="533" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>531</v>
       </c>
@@ -30436,7 +30447,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="534" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>532</v>
       </c>
@@ -30480,7 +30491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="535" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>533</v>
       </c>
@@ -30524,7 +30535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="536" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>534</v>
       </c>
@@ -30568,7 +30579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="537" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>535</v>
       </c>
@@ -30612,7 +30623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="538" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>536</v>
       </c>
@@ -30656,7 +30667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="539" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>537</v>
       </c>
@@ -30700,7 +30711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="540" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>538</v>
       </c>
@@ -30744,7 +30755,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="541" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>539</v>
       </c>
@@ -30788,7 +30799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="542" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>540</v>
       </c>
@@ -30832,7 +30843,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="543" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>541</v>
       </c>
@@ -30876,7 +30887,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="544" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>542</v>
       </c>
@@ -30920,7 +30931,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="545" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>543</v>
       </c>
@@ -30964,7 +30975,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="546" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>544</v>
       </c>
@@ -31008,7 +31019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>545</v>
       </c>
@@ -31052,7 +31063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="548" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>546</v>
       </c>
@@ -31096,7 +31107,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="549" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>547</v>
       </c>
@@ -31140,7 +31151,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="550" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>548</v>
       </c>
@@ -31184,7 +31195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="551" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>549</v>
       </c>
@@ -31228,7 +31239,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="552" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>550</v>
       </c>
@@ -31272,7 +31283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="553" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>551</v>
       </c>
@@ -31316,7 +31327,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="554" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>552</v>
       </c>
@@ -31360,7 +31371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="555" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>553</v>
       </c>
@@ -31404,7 +31415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="556" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>554</v>
       </c>
@@ -31448,7 +31459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="557" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>555</v>
       </c>
@@ -31492,7 +31503,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="558" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>556</v>
       </c>
@@ -31536,7 +31547,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="559" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>557</v>
       </c>
@@ -31580,7 +31591,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="560" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>558</v>
       </c>
@@ -31624,7 +31635,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="561" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>559</v>
       </c>
@@ -31668,7 +31679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="562" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>560</v>
       </c>
@@ -31712,7 +31723,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="563" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>561</v>
       </c>
@@ -31756,7 +31767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="564" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>562</v>
       </c>
@@ -31800,7 +31811,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>563</v>
       </c>
@@ -31844,7 +31855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="566" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>564</v>
       </c>
@@ -31888,7 +31899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="567" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>565</v>
       </c>
@@ -31932,7 +31943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="568" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>566</v>
       </c>
@@ -31976,7 +31987,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="569" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>567</v>
       </c>
@@ -32020,7 +32031,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>568</v>
       </c>
@@ -32064,7 +32075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="571" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>569</v>
       </c>
@@ -32108,7 +32119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="572" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>570</v>
       </c>
@@ -32152,7 +32163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="573" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>571</v>
       </c>
@@ -32196,7 +32207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="574" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>572</v>
       </c>
@@ -32240,7 +32251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>573</v>
       </c>
@@ -32284,7 +32295,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="576" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>574</v>
       </c>
@@ -32328,7 +32339,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="577" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>575</v>
       </c>
@@ -32372,7 +32383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="578" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>576</v>
       </c>
@@ -32416,7 +32427,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="579" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>577</v>
       </c>
@@ -32460,7 +32471,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="580" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>578</v>
       </c>
@@ -32504,7 +32515,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="581" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>579</v>
       </c>
@@ -32548,7 +32559,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="582" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>580</v>
       </c>
@@ -32592,7 +32603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="583" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>581</v>
       </c>
@@ -32636,7 +32647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="584" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>582</v>
       </c>
@@ -32680,7 +32691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="585" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>583</v>
       </c>
@@ -32724,7 +32735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="586" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>584</v>
       </c>
@@ -32768,7 +32779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="587" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>585</v>
       </c>
@@ -32812,7 +32823,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="588" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>586</v>
       </c>
@@ -32856,7 +32867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>587</v>
       </c>
@@ -32900,7 +32911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="590" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>588</v>
       </c>
@@ -32944,7 +32955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="591" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>589</v>
       </c>
@@ -32988,7 +32999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="592" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>590</v>
       </c>
@@ -33032,7 +33043,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="593" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>591</v>
       </c>
@@ -33076,7 +33087,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="594" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>592</v>
       </c>
@@ -33120,7 +33131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="595" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>593</v>
       </c>
@@ -33164,7 +33175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="596" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>594</v>
       </c>
@@ -33208,7 +33219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="597" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>595</v>
       </c>
@@ -33252,7 +33263,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="598" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>596</v>
       </c>
@@ -33296,7 +33307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="599" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>597</v>
       </c>
@@ -33340,7 +33351,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="600" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>598</v>
       </c>
@@ -33384,7 +33395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="601" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>599</v>
       </c>
@@ -33428,7 +33439,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="602" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>600</v>
       </c>
@@ -33472,7 +33483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="603" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A603">
         <v>601</v>
       </c>
@@ -33516,7 +33527,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="604" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A604">
         <v>602</v>
       </c>
@@ -33560,7 +33571,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="605" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A605">
         <v>603</v>
       </c>
@@ -33604,7 +33615,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="606" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A606">
         <v>604</v>
       </c>
@@ -33648,7 +33659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="607" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A607">
         <v>605</v>
       </c>
@@ -33692,7 +33703,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="608" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>606</v>
       </c>
@@ -33736,7 +33747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A609">
         <v>607</v>
       </c>
@@ -33780,7 +33791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="610" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>608</v>
       </c>
@@ -33824,7 +33835,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="611" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>609</v>
       </c>
@@ -33868,7 +33879,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="612" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>610</v>
       </c>
@@ -33912,7 +33923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="613" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>611</v>
       </c>
@@ -33956,7 +33967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="614" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>612</v>
       </c>
@@ -34000,7 +34011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="615" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>613</v>
       </c>
@@ -34044,7 +34055,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="616" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>614</v>
       </c>
@@ -34088,7 +34099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="617" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>615</v>
       </c>
@@ -34132,7 +34143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="618" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>616</v>
       </c>
@@ -34176,7 +34187,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="619" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>617</v>
       </c>
@@ -34220,7 +34231,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="620" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>618</v>
       </c>
@@ -34264,7 +34275,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="621" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>619</v>
       </c>
@@ -34308,7 +34319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="622" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>620</v>
       </c>
@@ -34352,7 +34363,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="623" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>621</v>
       </c>
@@ -34396,7 +34407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="624" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>622</v>
       </c>
@@ -34440,7 +34451,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="625" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>623</v>
       </c>
@@ -34484,7 +34495,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="626" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>624</v>
       </c>
@@ -34528,7 +34539,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="627" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>625</v>
       </c>
@@ -34572,7 +34583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="628" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>626</v>
       </c>
@@ -34616,7 +34627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="629" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>627</v>
       </c>
@@ -34660,7 +34671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="630" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>628</v>
       </c>
@@ -34704,7 +34715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="631" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>629</v>
       </c>
@@ -34748,7 +34759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="632" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>630</v>
       </c>
@@ -34792,7 +34803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="633" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>631</v>
       </c>
@@ -34836,7 +34847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="634" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>632</v>
       </c>
@@ -34880,7 +34891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="635" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>633</v>
       </c>
@@ -34924,7 +34935,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="636" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>634</v>
       </c>
@@ -34968,7 +34979,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="637" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>635</v>
       </c>
@@ -35012,7 +35023,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="638" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>636</v>
       </c>
@@ -35056,7 +35067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="639" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>637</v>
       </c>
@@ -35100,7 +35111,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="640" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>638</v>
       </c>
@@ -35144,7 +35155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="641" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>639</v>
       </c>
@@ -35188,7 +35199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="642" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>640</v>
       </c>
@@ -35232,7 +35243,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="643" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>641</v>
       </c>
@@ -35276,7 +35287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="644" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>642</v>
       </c>
@@ -35320,7 +35331,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="645" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>643</v>
       </c>
@@ -35364,7 +35375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="646" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>644</v>
       </c>
@@ -35408,7 +35419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="647" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>645</v>
       </c>
@@ -35452,7 +35463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>646</v>
       </c>
@@ -35496,7 +35507,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="649" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>647</v>
       </c>
@@ -35540,7 +35551,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="650" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>648</v>
       </c>
@@ -35584,7 +35595,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="651" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>649</v>
       </c>
@@ -35628,7 +35639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="652" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>650</v>
       </c>
@@ -35672,7 +35683,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="653" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>651</v>
       </c>
@@ -35716,7 +35727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="654" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>652</v>
       </c>
@@ -35760,7 +35771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="655" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>653</v>
       </c>
@@ -35804,7 +35815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="656" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>654</v>
       </c>
@@ -35848,7 +35859,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="657" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>655</v>
       </c>
@@ -35892,7 +35903,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="658" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>656</v>
       </c>
@@ -35936,7 +35947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="659" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>657</v>
       </c>
@@ -35980,7 +35991,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="660" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>658</v>
       </c>
@@ -36024,7 +36035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="661" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>659</v>
       </c>
@@ -36068,7 +36079,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="662" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>660</v>
       </c>
@@ -36112,7 +36123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="663" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>661</v>
       </c>
@@ -36156,7 +36167,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="664" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>662</v>
       </c>
@@ -36200,7 +36211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="665" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>663</v>
       </c>
@@ -36244,7 +36255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="666" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>664</v>
       </c>
@@ -36288,7 +36299,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="667" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>665</v>
       </c>
@@ -36332,7 +36343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="668" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>666</v>
       </c>
@@ -36376,7 +36387,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="669" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>667</v>
       </c>
@@ -36420,7 +36431,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="670" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>668</v>
       </c>
@@ -36464,7 +36475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="671" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>669</v>
       </c>
@@ -36508,7 +36519,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="672" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>670</v>
       </c>
@@ -36552,7 +36563,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="673" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>671</v>
       </c>
@@ -36596,7 +36607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="674" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>672</v>
       </c>
@@ -36640,7 +36651,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="675" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>673</v>
       </c>
@@ -36684,7 +36695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="676" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>674</v>
       </c>
@@ -36728,7 +36739,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="677" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A677">
         <v>675</v>
       </c>
@@ -36772,7 +36783,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="678" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A678">
         <v>676</v>
       </c>
@@ -36816,7 +36827,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="679" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A679">
         <v>677</v>
       </c>
@@ -36860,7 +36871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="680" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A680">
         <v>678</v>
       </c>
@@ -36904,7 +36915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="681" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>679</v>
       </c>
@@ -36948,7 +36959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="682" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A682">
         <v>680</v>
       </c>
@@ -36992,7 +37003,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="683" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>681</v>
       </c>
@@ -37036,7 +37047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="684" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>682</v>
       </c>
@@ -37080,7 +37091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="685" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>683</v>
       </c>
@@ -37124,7 +37135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="686" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>684</v>
       </c>
@@ -37168,7 +37179,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="687" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>685</v>
       </c>
@@ -37212,7 +37223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="688" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>686</v>
       </c>
@@ -37256,7 +37267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="689" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>687</v>
       </c>
@@ -37300,7 +37311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="690" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>688</v>
       </c>
@@ -37344,7 +37355,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="691" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>689</v>
       </c>
@@ -37388,7 +37399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="692" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>690</v>
       </c>
@@ -37432,7 +37443,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="693" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>691</v>
       </c>
@@ -37476,7 +37487,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="694" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>692</v>
       </c>
@@ -37520,7 +37531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>693</v>
       </c>
@@ -37564,7 +37575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="696" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>694</v>
       </c>
@@ -37608,7 +37619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="697" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>695</v>
       </c>
@@ -37652,7 +37663,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="698" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>696</v>
       </c>
@@ -37696,7 +37707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="699" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>697</v>
       </c>
@@ -37740,7 +37751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="700" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>698</v>
       </c>
@@ -37784,7 +37795,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="701" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>699</v>
       </c>
@@ -37828,7 +37839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="702" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>700</v>
       </c>
@@ -37872,7 +37883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="703" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>701</v>
       </c>
@@ -37916,7 +37927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="704" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>702</v>
       </c>
@@ -37960,7 +37971,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="705" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>703</v>
       </c>
@@ -38004,7 +38015,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="706" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>704</v>
       </c>
@@ -38048,7 +38059,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="707" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>705</v>
       </c>
@@ -38092,7 +38103,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="708" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>706</v>
       </c>
@@ -38136,7 +38147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="709" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>707</v>
       </c>
@@ -38180,7 +38191,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="710" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>708</v>
       </c>
@@ -38224,7 +38235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="711" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>709</v>
       </c>
@@ -38268,7 +38279,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="712" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>710</v>
       </c>
@@ -38312,7 +38323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="713" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>711</v>
       </c>
@@ -38356,7 +38367,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="714" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A714">
         <v>712</v>
       </c>
@@ -38400,7 +38411,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="715" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>713</v>
       </c>
@@ -38444,7 +38455,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="716" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>714</v>
       </c>
@@ -38488,7 +38499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="717" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>715</v>
       </c>
@@ -38532,7 +38543,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="718" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>716</v>
       </c>
@@ -38576,7 +38587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="719" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>717</v>
       </c>
@@ -38620,7 +38631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="720" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A720">
         <v>718</v>
       </c>
@@ -38664,7 +38675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="721" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>719</v>
       </c>
@@ -38708,7 +38719,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="722" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>720</v>
       </c>
@@ -38752,7 +38763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="723" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>721</v>
       </c>
@@ -38796,7 +38807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="724" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>722</v>
       </c>
@@ -38840,7 +38851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="725" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>723</v>
       </c>
@@ -38884,7 +38895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="726" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>724</v>
       </c>
@@ -38928,7 +38939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="727" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>725</v>
       </c>
@@ -38972,7 +38983,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="728" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>726</v>
       </c>
@@ -39016,7 +39027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="729" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>727</v>
       </c>
@@ -39060,7 +39071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="730" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>728</v>
       </c>
@@ -39104,7 +39115,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="731" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>729</v>
       </c>
@@ -39148,7 +39159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="732" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>730</v>
       </c>
@@ -39192,7 +39203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="733" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>731</v>
       </c>
@@ -39236,7 +39247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="734" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>732</v>
       </c>
@@ -39280,7 +39291,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="735" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>733</v>
       </c>
@@ -39324,7 +39335,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="736" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>734</v>
       </c>
@@ -39368,7 +39379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="737" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>735</v>
       </c>
@@ -39412,7 +39423,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="738" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>736</v>
       </c>
@@ -39456,7 +39467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="739" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>737</v>
       </c>
@@ -39500,7 +39511,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="740" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>738</v>
       </c>
@@ -39544,7 +39555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="741" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>739</v>
       </c>
@@ -39588,7 +39599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="742" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>740</v>
       </c>
@@ -39632,7 +39643,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="743" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>741</v>
       </c>
@@ -39676,7 +39687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="744" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>742</v>
       </c>
@@ -39720,7 +39731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="745" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>743</v>
       </c>
@@ -39764,7 +39775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="746" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>744</v>
       </c>
@@ -39808,7 +39819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="747" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>745</v>
       </c>
@@ -39852,7 +39863,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="748" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>746</v>
       </c>
@@ -39896,7 +39907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="749" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>747</v>
       </c>
@@ -39940,7 +39951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="750" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>748</v>
       </c>
@@ -39984,7 +39995,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="751" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A751">
         <v>749</v>
       </c>
@@ -40028,7 +40039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="752" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A752">
         <v>750</v>
       </c>
@@ -40072,7 +40083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="753" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>751</v>
       </c>
@@ -40116,7 +40127,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="754" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>752</v>
       </c>
@@ -40160,7 +40171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="755" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>753</v>
       </c>
@@ -40204,7 +40215,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="756" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>754</v>
       </c>
@@ -40248,7 +40259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="757" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>755</v>
       </c>
@@ -40292,7 +40303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="758" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>756</v>
       </c>
@@ -40336,7 +40347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="759" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>757</v>
       </c>
@@ -40380,7 +40391,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="760" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>758</v>
       </c>
@@ -40424,7 +40435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="761" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>759</v>
       </c>
@@ -40468,7 +40479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="762" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>760</v>
       </c>
@@ -40512,7 +40523,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="763" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>761</v>
       </c>
@@ -40556,7 +40567,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="764" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>762</v>
       </c>
@@ -40600,7 +40611,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="765" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>763</v>
       </c>
@@ -40644,7 +40655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="766" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>764</v>
       </c>
@@ -40688,7 +40699,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="767" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>765</v>
       </c>
@@ -40732,7 +40743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="768" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>766</v>
       </c>
@@ -40776,7 +40787,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="769" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>767</v>
       </c>
@@ -40820,7 +40831,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="770" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>768</v>
       </c>
@@ -40864,7 +40875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="771" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>769</v>
       </c>
@@ -40908,7 +40919,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="772" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>770</v>
       </c>
@@ -40952,7 +40963,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="773" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>771</v>
       </c>
@@ -40996,7 +41007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="774" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>772</v>
       </c>
@@ -41040,7 +41051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="775" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>773</v>
       </c>
@@ -41084,7 +41095,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="776" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>774</v>
       </c>
@@ -41128,7 +41139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="777" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>775</v>
       </c>
@@ -41172,7 +41183,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="778" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>776</v>
       </c>
@@ -41216,7 +41227,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="779" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>777</v>
       </c>
@@ -41260,7 +41271,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="780" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>778</v>
       </c>
@@ -41304,7 +41315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="781" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>779</v>
       </c>
@@ -41348,7 +41359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="782" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>780</v>
       </c>
@@ -41392,7 +41403,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="783" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>781</v>
       </c>
@@ -41436,7 +41447,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="784" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>782</v>
       </c>
@@ -41480,7 +41491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="785" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>783</v>
       </c>
@@ -41524,7 +41535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="786" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>784</v>
       </c>
@@ -41568,7 +41579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="787" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>785</v>
       </c>
@@ -41612,7 +41623,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="788" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A788">
         <v>786</v>
       </c>
@@ -41656,7 +41667,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="789" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A789">
         <v>787</v>
       </c>
@@ -41700,7 +41711,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="790" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>788</v>
       </c>
@@ -41744,7 +41755,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="791" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>789</v>
       </c>
@@ -41788,7 +41799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="792" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A792">
         <v>790</v>
       </c>
@@ -41832,7 +41843,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="793" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>791</v>
       </c>
@@ -41876,7 +41887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="794" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A794">
         <v>792</v>
       </c>
@@ -41920,7 +41931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="795" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>793</v>
       </c>
@@ -41964,7 +41975,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="796" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>794</v>
       </c>
@@ -42008,7 +42019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="797" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>795</v>
       </c>
@@ -42052,7 +42063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="798" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>796</v>
       </c>
@@ -42096,7 +42107,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="799" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>797</v>
       </c>
@@ -42140,7 +42151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="800" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>798</v>
       </c>
@@ -42184,7 +42195,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="801" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>799</v>
       </c>
@@ -42228,7 +42239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="802" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>800</v>
       </c>
@@ -42272,7 +42283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="803" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>801</v>
       </c>
@@ -42316,7 +42327,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="804" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>802</v>
       </c>
@@ -42360,7 +42371,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="805" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>803</v>
       </c>
@@ -42404,7 +42415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="806" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>804</v>
       </c>
@@ -42448,7 +42459,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="807" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>805</v>
       </c>
@@ -42492,7 +42503,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="808" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>806</v>
       </c>
@@ -42536,7 +42547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="809" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>807</v>
       </c>
@@ -42580,7 +42591,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="810" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>808</v>
       </c>
@@ -42624,7 +42635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="811" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>809</v>
       </c>
@@ -42668,7 +42679,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="812" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>810</v>
       </c>
@@ -42712,7 +42723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="813" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>811</v>
       </c>
@@ -42756,7 +42767,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="814" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>812</v>
       </c>
@@ -42800,7 +42811,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="815" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>813</v>
       </c>
@@ -42844,7 +42855,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="816" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>814</v>
       </c>
@@ -42888,7 +42899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="817" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>815</v>
       </c>
@@ -42932,7 +42943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="818" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>816</v>
       </c>
@@ -42976,7 +42987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="819" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>817</v>
       </c>
@@ -43020,7 +43031,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="820" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>818</v>
       </c>
@@ -43064,7 +43075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="821" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>819</v>
       </c>
@@ -43108,7 +43119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="822" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>820</v>
       </c>
@@ -43152,7 +43163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="823" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>821</v>
       </c>
@@ -43196,7 +43207,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="824" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>822</v>
       </c>
@@ -43240,7 +43251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="825" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>823</v>
       </c>
@@ -43284,7 +43295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="826" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A826">
         <v>824</v>
       </c>
@@ -43328,7 +43339,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="827" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A827">
         <v>825</v>
       </c>
@@ -43372,7 +43383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="828" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A828">
         <v>826</v>
       </c>
@@ -43416,7 +43427,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="829" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>827</v>
       </c>
@@ -43460,7 +43471,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="830" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A830">
         <v>828</v>
       </c>
@@ -43504,7 +43515,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="831" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A831">
         <v>829</v>
       </c>
@@ -43548,7 +43559,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="832" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>830</v>
       </c>
@@ -43592,7 +43603,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="833" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A833">
         <v>831</v>
       </c>
@@ -43636,7 +43647,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="834" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A834">
         <v>832</v>
       </c>
@@ -43680,7 +43691,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="835" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A835">
         <v>833</v>
       </c>
@@ -43724,7 +43735,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="836" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>834</v>
       </c>
@@ -43768,7 +43779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="837" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A837">
         <v>835</v>
       </c>
@@ -43812,7 +43823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="838" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A838">
         <v>836</v>
       </c>
@@ -43856,7 +43867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="839" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A839">
         <v>837</v>
       </c>
@@ -43900,7 +43911,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="840" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A840">
         <v>838</v>
       </c>
@@ -43944,7 +43955,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="841" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>839</v>
       </c>
@@ -43988,7 +43999,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="842" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A842">
         <v>840</v>
       </c>
@@ -44032,7 +44043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="843" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>841</v>
       </c>
@@ -44076,7 +44087,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="844" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A844">
         <v>842</v>
       </c>
@@ -44120,7 +44131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="845" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>843</v>
       </c>
@@ -44164,7 +44175,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="846" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>844</v>
       </c>
@@ -44208,7 +44219,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="847" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A847">
         <v>845</v>
       </c>
@@ -44252,7 +44263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="848" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A848">
         <v>846</v>
       </c>
@@ -44296,7 +44307,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="849" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A849">
         <v>847</v>
       </c>
@@ -44340,7 +44351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="850" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>848</v>
       </c>
@@ -44384,7 +44395,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="851" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A851">
         <v>849</v>
       </c>
@@ -44428,7 +44439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="852" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>850</v>
       </c>
@@ -44472,7 +44483,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="853" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A853">
         <v>851</v>
       </c>
@@ -44516,7 +44527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="854" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A854">
         <v>852</v>
       </c>
@@ -44560,7 +44571,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="855" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>853</v>
       </c>
@@ -44604,7 +44615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="856" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>854</v>
       </c>
@@ -44648,7 +44659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="857" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>855</v>
       </c>
@@ -44692,7 +44703,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="858" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A858">
         <v>856</v>
       </c>
@@ -44736,7 +44747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="859" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A859">
         <v>857</v>
       </c>
@@ -44780,7 +44791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="860" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A860">
         <v>858</v>
       </c>
@@ -44824,7 +44835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="861" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A861">
         <v>859</v>
       </c>
@@ -44868,7 +44879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="862" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A862">
         <v>860</v>
       </c>
@@ -44912,7 +44923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="863" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>861</v>
       </c>
@@ -44956,7 +44967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="864" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A864">
         <v>862</v>
       </c>
@@ -45000,7 +45011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="865" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>863</v>
       </c>
@@ -45044,7 +45055,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="866" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A866">
         <v>864</v>
       </c>
@@ -45088,7 +45099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="867" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A867">
         <v>865</v>
       </c>
@@ -45132,7 +45143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="868" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A868">
         <v>866</v>
       </c>
@@ -45176,7 +45187,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="869" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>867</v>
       </c>
@@ -45220,7 +45231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="870" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A870">
         <v>868</v>
       </c>
@@ -45264,7 +45275,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="871" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A871">
         <v>869</v>
       </c>
@@ -45308,7 +45319,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="872" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>870</v>
       </c>
@@ -45352,7 +45363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="873" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>871</v>
       </c>
@@ -45396,7 +45407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="874" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A874">
         <v>872</v>
       </c>
@@ -45440,7 +45451,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="875" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A875">
         <v>873</v>
       </c>
@@ -45484,7 +45495,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="876" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>874</v>
       </c>
@@ -45528,7 +45539,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="877" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A877">
         <v>875</v>
       </c>
@@ -45572,7 +45583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="878" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A878">
         <v>876</v>
       </c>
@@ -45616,7 +45627,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="879" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>877</v>
       </c>
@@ -45660,7 +45671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="880" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A880">
         <v>878</v>
       </c>
@@ -45704,7 +45715,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="881" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A881">
         <v>879</v>
       </c>
@@ -45748,7 +45759,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="882" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A882">
         <v>880</v>
       </c>
@@ -45792,7 +45803,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="883" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>881</v>
       </c>
@@ -45836,7 +45847,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="884" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>882</v>
       </c>
@@ -45880,7 +45891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="885" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A885">
         <v>883</v>
       </c>
@@ -45924,7 +45935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="886" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>884</v>
       </c>
@@ -45968,7 +45979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="887" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>885</v>
       </c>
@@ -46012,7 +46023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="888" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>886</v>
       </c>
@@ -46056,7 +46067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="889" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>887</v>
       </c>
@@ -46100,7 +46111,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="890" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A890">
         <v>888</v>
       </c>
@@ -46144,7 +46155,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="891" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A891">
         <v>889</v>
       </c>
@@ -46188,7 +46199,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="892" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A892">
         <v>890</v>
       </c>
@@ -46232,7 +46243,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="893" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A893">
         <v>891</v>
       </c>
@@ -46276,7 +46287,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="894" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>892</v>
       </c>
@@ -46320,7 +46331,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="895" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A895">
         <v>893</v>
       </c>
@@ -46364,7 +46375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="896" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A896">
         <v>894</v>
       </c>
@@ -46408,7 +46419,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="897" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A897">
         <v>895</v>
       </c>
@@ -46452,7 +46463,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="898" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>896</v>
       </c>
@@ -46496,7 +46507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="899" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A899">
         <v>897</v>
       </c>
@@ -46540,7 +46551,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="900" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A900">
         <v>898</v>
       </c>
@@ -46584,7 +46595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="901" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A901">
         <v>899</v>
       </c>
@@ -46628,7 +46639,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="902" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A902">
         <v>900</v>
       </c>
@@ -46672,7 +46683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="903" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A903">
         <v>901</v>
       </c>
@@ -46716,7 +46727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="904" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>902</v>
       </c>
@@ -46760,7 +46771,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="905" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A905">
         <v>903</v>
       </c>
@@ -46804,7 +46815,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="906" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>904</v>
       </c>
@@ -46848,7 +46859,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="907" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>905</v>
       </c>
@@ -46892,7 +46903,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="908" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>906</v>
       </c>
@@ -46936,7 +46947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="909" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>907</v>
       </c>
@@ -46980,7 +46991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="910" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>908</v>
       </c>
@@ -47024,7 +47035,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="911" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A911">
         <v>909</v>
       </c>
@@ -47068,7 +47079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="912" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A912">
         <v>910</v>
       </c>
@@ -47112,7 +47123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="913" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>911</v>
       </c>
@@ -47156,7 +47167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="914" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A914">
         <v>912</v>
       </c>
@@ -47200,7 +47211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="915" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A915">
         <v>913</v>
       </c>
@@ -47244,7 +47255,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="916" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A916">
         <v>914</v>
       </c>
@@ -47288,7 +47299,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="917" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A917">
         <v>915</v>
       </c>
@@ -47332,7 +47343,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="918" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A918">
         <v>916</v>
       </c>
@@ -47376,7 +47387,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="919" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A919">
         <v>917</v>
       </c>
@@ -47420,7 +47431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="920" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>918</v>
       </c>
@@ -47464,7 +47475,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="921" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>919</v>
       </c>
@@ -47508,7 +47519,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="922" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>920</v>
       </c>
@@ -47552,7 +47563,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="923" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>921</v>
       </c>
@@ -47596,7 +47607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="924" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>922</v>
       </c>
@@ -47640,7 +47651,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="925" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A925">
         <v>923</v>
       </c>
@@ -47684,7 +47695,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="926" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A926">
         <v>924</v>
       </c>
@@ -47728,7 +47739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="927" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A927">
         <v>925</v>
       </c>
@@ -47772,7 +47783,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="928" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A928">
         <v>926</v>
       </c>
@@ -47816,7 +47827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="929" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A929">
         <v>927</v>
       </c>
@@ -47860,7 +47871,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="930" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A930">
         <v>928</v>
       </c>
@@ -47904,7 +47915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="931" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>929</v>
       </c>
@@ -47948,7 +47959,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="932" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>930</v>
       </c>
@@ -47992,7 +48003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="933" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A933">
         <v>931</v>
       </c>
@@ -48036,7 +48047,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="934" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A934">
         <v>932</v>
       </c>
@@ -48080,7 +48091,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="935" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>933</v>
       </c>
@@ -48124,7 +48135,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="936" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A936">
         <v>934</v>
       </c>
@@ -48168,7 +48179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="937" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>935</v>
       </c>
@@ -48212,7 +48223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="938" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A938">
         <v>936</v>
       </c>
@@ -48256,7 +48267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="939" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>937</v>
       </c>
@@ -48300,7 +48311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="940" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A940">
         <v>938</v>
       </c>
@@ -48344,7 +48355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="941" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A941">
         <v>939</v>
       </c>
@@ -48388,7 +48399,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="942" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A942">
         <v>940</v>
       </c>
@@ -48432,7 +48443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="943" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A943">
         <v>941</v>
       </c>
@@ -48476,7 +48487,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="944" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>942</v>
       </c>
@@ -48520,7 +48531,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="945" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A945">
         <v>943</v>
       </c>
@@ -48564,7 +48575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="946" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A946">
         <v>944</v>
       </c>
@@ -48608,7 +48619,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="947" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A947">
         <v>945</v>
       </c>
@@ -48652,7 +48663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="948" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A948">
         <v>946</v>
       </c>
@@ -48696,7 +48707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="949" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>947</v>
       </c>
@@ -48740,7 +48751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="950" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A950">
         <v>948</v>
       </c>
@@ -48784,7 +48795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="951" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A951">
         <v>949</v>
       </c>
@@ -48828,7 +48839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="952" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>950</v>
       </c>
@@ -48872,7 +48883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="953" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A953">
         <v>951</v>
       </c>
@@ -48916,7 +48927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="954" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A954">
         <v>952</v>
       </c>
@@ -48960,7 +48971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="955" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A955">
         <v>953</v>
       </c>
@@ -49004,7 +49015,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="956" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>954</v>
       </c>
@@ -49048,7 +49059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="957" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>955</v>
       </c>
@@ -49092,7 +49103,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="958" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>956</v>
       </c>
@@ -49136,7 +49147,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="959" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>957</v>
       </c>
@@ -49180,7 +49191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="960" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A960">
         <v>958</v>
       </c>
@@ -49224,7 +49235,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="961" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>959</v>
       </c>
@@ -49268,7 +49279,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="962" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A962">
         <v>960</v>
       </c>
@@ -49312,7 +49323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="963" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A963">
         <v>961</v>
       </c>
@@ -49356,7 +49367,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="964" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A964">
         <v>962</v>
       </c>
@@ -49400,7 +49411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="965" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A965">
         <v>963</v>
       </c>
@@ -49444,7 +49455,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="966" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>964</v>
       </c>
@@ -49488,7 +49499,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="967" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A967">
         <v>965</v>
       </c>
@@ -49532,7 +49543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="968" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A968">
         <v>966</v>
       </c>
@@ -49576,7 +49587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="969" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A969">
         <v>967</v>
       </c>
@@ -49620,7 +49631,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="970" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>968</v>
       </c>
@@ -49664,7 +49675,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="971" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A971">
         <v>969</v>
       </c>
@@ -49708,7 +49719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="972" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>970</v>
       </c>
@@ -49752,7 +49763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="973" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A973">
         <v>971</v>
       </c>
@@ -49796,7 +49807,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="974" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>972</v>
       </c>
@@ -49840,7 +49851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="975" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A975">
         <v>973</v>
       </c>
@@ -49884,7 +49895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="976" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A976">
         <v>974</v>
       </c>
@@ -49928,7 +49939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="977" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A977">
         <v>975</v>
       </c>
@@ -49972,7 +49983,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="978" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>976</v>
       </c>
@@ -50016,7 +50027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="979" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A979">
         <v>977</v>
       </c>
@@ -50060,7 +50071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="980" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A980">
         <v>978</v>
       </c>
@@ -50104,7 +50115,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="981" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A981">
         <v>979</v>
       </c>
@@ -50148,7 +50159,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="982" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A982">
         <v>980</v>
       </c>
@@ -50192,7 +50203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="983" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>981</v>
       </c>
@@ -50236,7 +50247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="984" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A984">
         <v>982</v>
       </c>
@@ -50280,7 +50291,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="985" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A985">
         <v>983</v>
       </c>
@@ -50324,7 +50335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="986" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>984</v>
       </c>
@@ -50368,7 +50379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="987" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A987">
         <v>985</v>
       </c>
@@ -50412,7 +50423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="988" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A988">
         <v>986</v>
       </c>
@@ -50456,7 +50467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="989" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>987</v>
       </c>
@@ -50500,7 +50511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="990" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>988</v>
       </c>
@@ -50544,7 +50555,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="991" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A991">
         <v>989</v>
       </c>
@@ -50588,7 +50599,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="992" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>990</v>
       </c>
@@ -50632,7 +50643,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="993" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>991</v>
       </c>
@@ -50676,7 +50687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="994" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A994">
         <v>992</v>
       </c>
@@ -50720,7 +50731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="995" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A995">
         <v>993</v>
       </c>
@@ -50764,7 +50775,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="996" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A996">
         <v>994</v>
       </c>
@@ -50808,7 +50819,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="997" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A997">
         <v>995</v>
       </c>
@@ -50852,7 +50863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="998" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>996</v>
       </c>
@@ -50896,7 +50907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="999" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>997</v>
       </c>
@@ -50940,7 +50951,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1000" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>998</v>
       </c>
@@ -50984,7 +50995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1001" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1001">
         <v>999</v>
       </c>
@@ -51029,6 +51040,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>